--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1515484.381852697</v>
+        <v>1513107.754905332</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283198</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>56.91750123718787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>231.7804756797877</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>112.3581576295189</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>166.1694869363181</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>220.8789552701361</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>360.3655810012727</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>82.45867004622747</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>152.5449695980486</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>73.24756871688444</v>
+        <v>71.46540913360361</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>35.34544850263634</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>33.28962109883609</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>120.1447214650606</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756253</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>36.22494343870321</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>40.62253010341791</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>54.31367585848692</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>192.8170508184371</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174109</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936177</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,13 +3481,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>191.9440058362622</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365927</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012319</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>51.36569740310247</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999764</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892427316</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1798.734238163264</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="C2" t="n">
-        <v>1429.771721222852</v>
+        <v>901.822256251568</v>
       </c>
       <c r="D2" t="n">
-        <v>1071.506022616102</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1071.506022616102</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4328,10 +4328,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139076</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163264</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.20497511435</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>1057.327935297105</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.8272960668249</v>
+        <v>270.5950217532753</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>270.5950217532753</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>270.5950217532753</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1468.598153472156</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1245.619672666891</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>956.5013351707291</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>701.8168469648423</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W4" t="n">
-        <v>701.8168469648423</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="X4" t="n">
-        <v>473.8272960668249</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.8272960668249</v>
+        <v>452.2434865835151</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854573</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="C5" t="n">
-        <v>359.3403385450455</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="D5" t="n">
-        <v>136.2302827166252</v>
+        <v>1141.96181897037</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2102.578639884741</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2349.761373717038</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.2860735999672</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C7" t="n">
-        <v>369.3498906720603</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X7" t="n">
-        <v>719.9345384302069</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y7" t="n">
-        <v>719.9345384302069</v>
+        <v>381.6341495347366</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2363.652677778257</v>
+        <v>2365.452838973492</v>
       </c>
       <c r="U8" t="n">
-        <v>2363.652677778257</v>
+        <v>2365.452838973492</v>
       </c>
       <c r="V8" t="n">
-        <v>2363.652677778257</v>
+        <v>2034.389951629921</v>
       </c>
       <c r="W8" t="n">
-        <v>2363.652677778257</v>
+        <v>1681.621296359807</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1681.621296359807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1681.621296359807</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4872,31 +4872,31 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4920,7 +4920,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.9724752679349</v>
+        <v>385.8047973518188</v>
       </c>
       <c r="C10" t="n">
-        <v>514.036292340028</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1602.820240176683</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V10" t="n">
-        <v>1602.820240176683</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W10" t="n">
-        <v>1313.403070139722</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X10" t="n">
-        <v>1085.413519241705</v>
+        <v>606.597376495349</v>
       </c>
       <c r="Y10" t="n">
-        <v>864.6209400981746</v>
+        <v>385.8047973518188</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075814</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468476</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589159</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143766</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603203</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969296</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969296</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297695</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,16 +5762,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>888.6771326738542</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>738.5604932615184</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>590.6473996791253</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>443.7574521812149</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
-        <v>276.5613528960949</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>134.849521738293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.054359575531</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1239.261780432001</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>641.8461362382112</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>472.9099533103043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2325.055080985707</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2105.453616008648</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1816.378389352846</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1561.693901146959</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1272.276731109998</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1044.287180211981</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>823.4946010684509</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6917,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192585</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6950,34 +6950,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468469</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962605</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589157</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143763</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143763</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1561.54872342426</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1272.131553387299</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444888</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297694</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T40" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U40" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V40" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797183</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452622</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718139</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400626</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121557</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121557</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121557</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121557</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270356</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570809</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580252</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832654</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487559</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.4610805105</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854697</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564881</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.28419561185</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138324</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703023</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780645</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>60.50016306149547</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.9531451156659</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.2444844197685</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10592,13 +10592,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.1260136526046</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>166.0397529241835</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345295159</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.003342051663</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>40.64330621514761</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>126.7126101431577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45.44677382459466</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631857252</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>60.19363748756575</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>43.2652634529517</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>166.0397529241858</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659277</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392195072</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013801</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013801</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013801</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013801</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013801</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914139.36430138</v>
+        <v>914139.3643013801</v>
       </c>
     </row>
     <row r="16">
@@ -26320,40 +26320,40 @@
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245465</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289264</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.540033842204138e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707362</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670735</v>
+        <v>6897.424496707366</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707348</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707365</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.424496707368</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707385</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-826448.1766822124</v>
+        <v>-826448.1766822126</v>
       </c>
       <c r="C6" t="n">
-        <v>288303.6068937073</v>
+        <v>288303.6068937076</v>
       </c>
       <c r="D6" t="n">
         <v>288303.6068937073</v>
       </c>
       <c r="E6" t="n">
-        <v>-111038.7711389072</v>
+        <v>-111073.5090643422</v>
       </c>
       <c r="F6" t="n">
-        <v>396446.6704856392</v>
+        <v>396411.9325602034</v>
       </c>
       <c r="G6" t="n">
-        <v>396446.6704856395</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="H6" t="n">
-        <v>396446.6704856393</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="I6" t="n">
-        <v>396446.6704856393</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="J6" t="n">
-        <v>228841.4926756569</v>
+        <v>228806.7547502211</v>
       </c>
       <c r="K6" t="n">
-        <v>396446.6704856392</v>
+        <v>396411.9325602037</v>
       </c>
       <c r="L6" t="n">
-        <v>396446.6704856392</v>
+        <v>396411.9325602037</v>
       </c>
       <c r="M6" t="n">
-        <v>263839.3767567128</v>
+        <v>263804.6388312768</v>
       </c>
       <c r="N6" t="n">
-        <v>396446.6704856392</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="O6" t="n">
-        <v>396446.6704856391</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="P6" t="n">
-        <v>396446.6704856388</v>
+        <v>396411.9325602035</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175394</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175392</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26768,13 +26768,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26793,16 +26793,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241353</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>297.7655403834951</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>175.0955700619237</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>34.07580501705026</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>28.49297342541934</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>133.8040863505469</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>21.56478907098909</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>143.2509853428097</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>66.03968375404619</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>133.4106162633493</v>
+        <v>135.1927758466301</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>131.9013725959915</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,22 +28059,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>252.9375330223645</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30162,7 +30162,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-5.435989003088223e-12</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30204,7 +30204,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30469,13 +30469,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-7.729757574755542e-12</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565744</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547045</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954392</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>225.4828684302374</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33193,7 +33193,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33260,19 +33260,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>156.3072281639559</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862118</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>188.4731159523465</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963292</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437241</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34778,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215493</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>451.6972626543695</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>304.6326742391982</v>
       </c>
       <c r="Q6" t="n">
-        <v>214.725206750623</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.95065951213</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748304</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121058</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>82.88662398579301</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902957</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>22.33282074962563</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>45.87687150790201</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916455</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992796</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329898996</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
